--- a/Assets/Doc/仕様.xlsx
+++ b/Assets/Doc/仕様.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.takahashi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.takahashi/Documents/Develop/Unity/LastRecord/Assets/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB16991-2918-F148-B6D1-5DE1010EB57A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E365A0C4-F87F-D047-83DB-4AE0470A2F6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3040" windowWidth="21140" windowHeight="13640" activeTab="1" xr2:uid="{E13B2868-3469-294C-8736-18F1DAAB0BEA}"/>
+    <workbookView xWindow="9700" yWindow="780" windowWidth="19000" windowHeight="16200" activeTab="2" xr2:uid="{E13B2868-3469-294C-8736-18F1DAAB0BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="スキル" sheetId="1" r:id="rId1"/>
     <sheet name="ギミック" sheetId="2" r:id="rId2"/>
-    <sheet name="状態異常" sheetId="3" r:id="rId3"/>
+    <sheet name="クラス最大パラメータ" sheetId="4" r:id="rId3"/>
+    <sheet name="状態異常" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>毒の罠</t>
     <rPh sb="0" eb="1">
@@ -418,6 +419,345 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARCHER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣士</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗賊</t>
+    <rPh sb="0" eb="2">
+      <t>トウゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踊り子</t>
+    <rPh sb="0" eb="1">
+      <t>オドリコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山賊</t>
+    <rPh sb="0" eb="2">
+      <t>サンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦士</t>
+    <rPh sb="0" eb="2">
+      <t>センシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィザード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーク・ウィザード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネクロマンサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位</t>
+    <rPh sb="0" eb="1">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーサーカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市民</t>
+    <rPh sb="0" eb="2">
+      <t>シミn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナイパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソードマスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーマーナイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェネラル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>槍兵</t>
+    <rPh sb="0" eb="2">
+      <t>ヤリヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴァルキュリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CITIZEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>THIEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROGUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASSASSIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARMOR_KNIGHT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GENERAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SWORDSMAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SWORD_MASTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LANCER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPEARMEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WARRIOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BERSERKER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNIPER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIZARD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARC_WIZARD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHERMAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NECROMANCER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神官</t>
+    <rPh sb="0" eb="2">
+      <t>シンカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SISTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VALKYRIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DANCER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数名</t>
+    <rPh sb="0" eb="3">
+      <t>テイスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筋力</t>
+    <rPh sb="0" eb="2">
+      <t>キンリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔力</t>
+    <rPh sb="0" eb="2">
+      <t>マリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技量</t>
+    <rPh sb="0" eb="2">
+      <t>ギリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速さ</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <rPh sb="0" eb="2">
+      <t>マボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸運</t>
+    <rPh sb="0" eb="2">
+      <t>コウウn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vitality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dexterity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BANDIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖職者</t>
+    <rPh sb="0" eb="3">
+      <t>セイショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLERIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magicDefense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magicPower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体格</t>
+    <rPh sb="0" eb="2">
+      <t>タイカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -426,7 +766,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -440,19 +780,151 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -463,8 +935,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6325D603-EF8E-5F4F-B9F4-E556E0D77678}">
   <dimension ref="A9:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -941,6 +1461,970 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FC5607-71D5-3042-83DA-E29CCC3FC24C}">
+  <dimension ref="A3:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16">
+      <c r="A19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16">
+      <c r="A21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16">
+      <c r="A22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16">
+      <c r="A23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16">
+      <c r="A24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16">
+      <c r="A25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16">
+      <c r="A26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16">
+      <c r="A27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="16">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="16">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="16">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="11:11" ht="16">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="11:11" ht="16">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="11:11" ht="16">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="11:11" ht="16">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="11:11" ht="16">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="11:11" ht="16">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="11:11" ht="16">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="11:11" ht="16">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="11:11" ht="16">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="11:11" ht="16">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="11:11" ht="16">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="11:11" ht="16">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="11:11" ht="16">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="11:11" ht="16">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="11:11" ht="16">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="11:11" ht="16">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="11:11" ht="16">
+      <c r="K49" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2239F3CC-0CDA-9641-B716-007DC3707827}">
   <dimension ref="A7:B9"/>
   <sheetViews>

--- a/Assets/Doc/仕様.xlsx
+++ b/Assets/Doc/仕様.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.takahashi/Documents/Develop/Unity/LastRecord/Assets/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walki\Documents\Unity\LastRecord\Assets\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E365A0C4-F87F-D047-83DB-4AE0470A2F6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02967694-4BE1-4E97-97A5-AB457CA47657}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="780" windowWidth="19000" windowHeight="16200" activeTab="2" xr2:uid="{E13B2868-3469-294C-8736-18F1DAAB0BEA}"/>
+    <workbookView xWindow="12495" yWindow="780" windowWidth="19005" windowHeight="16200" activeTab="2" xr2:uid="{E13B2868-3469-294C-8736-18F1DAAB0BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="スキル" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>毒の罠</t>
     <rPh sb="0" eb="1">
@@ -659,20 +659,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>筋力</t>
-    <rPh sb="0" eb="2">
-      <t>キンリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>魔力</t>
-    <rPh sb="0" eb="2">
-      <t>マリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>技量</t>
     <rPh sb="0" eb="2">
       <t>ギリョウ</t>
@@ -708,30 +694,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>vitality</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>strength</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dexterity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>luck</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BANDIT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -747,26 +709,112 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>magicDefense</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>magicPower</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>体格</t>
     <rPh sb="0" eb="2">
       <t>タイカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LUK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AVD</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>命中</t>
+    <rPh sb="0" eb="2">
+      <t>メイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>威力</t>
+    <rPh sb="0" eb="2">
+      <t>イリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DMG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -792,8 +840,15 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14.4"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,8 +861,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -831,100 +892,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="thick">
+        <color rgb="FF132950"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -935,56 +906,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,7 +1254,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1322,13 +1269,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="1:5">
@@ -1462,960 +1409,1064 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FC5607-71D5-3042-83DA-E29CCC3FC24C}">
-  <dimension ref="A3:L49"/>
+  <dimension ref="A3:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+      <c r="L5" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18">
+      <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6</v>
+      </c>
+      <c r="L6" s="5">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18">
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5">
+        <v>20</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
+        <v>20</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
+      <c r="A12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6</v>
+      </c>
+      <c r="L12" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
+      <c r="A13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75">
+      <c r="A14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6</v>
+      </c>
+      <c r="L14" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75">
+      <c r="A15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>6</v>
+      </c>
+      <c r="L15" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>6</v>
+      </c>
+      <c r="L16" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>6</v>
+      </c>
+      <c r="L17" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
+      <c r="A18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>6</v>
+      </c>
+      <c r="L18" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2">
+        <v>6</v>
+      </c>
+      <c r="L19" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2">
+        <v>6</v>
+      </c>
+      <c r="L20" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2">
+        <v>6</v>
+      </c>
+      <c r="L21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
+      <c r="A22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" s="2">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2">
+        <v>6</v>
+      </c>
+      <c r="L22" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
+      <c r="A23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2">
+        <v>6</v>
+      </c>
+      <c r="L23" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="A24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2">
+        <v>20</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2">
+        <v>6</v>
+      </c>
+      <c r="L24" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
+      <c r="A25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2">
+        <v>6</v>
+      </c>
+      <c r="L25" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
+      <c r="A26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2">
+        <v>20</v>
+      </c>
+      <c r="J26" s="2">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2">
+        <v>6</v>
+      </c>
+      <c r="L26" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
+      <c r="A27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16">
-      <c r="A5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>40</v>
       </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
+      <c r="E27" s="2">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2">
         <v>30</v>
       </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6">
+      <c r="H27" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2">
+        <v>20</v>
+      </c>
+      <c r="J27" s="2">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2">
+        <v>6</v>
+      </c>
+      <c r="L27" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
+      <c r="A28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>40</v>
       </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2">
         <v>30</v>
       </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16">
-      <c r="A8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>20</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>27</v>
-      </c>
-      <c r="H9">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>30</v>
-      </c>
-      <c r="J9">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>24</v>
-      </c>
-      <c r="L9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16">
-      <c r="A10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>30</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>20</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>30</v>
-      </c>
-      <c r="I14">
-        <v>20</v>
-      </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>20</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-      <c r="H16">
-        <v>30</v>
-      </c>
-      <c r="I16">
-        <v>20</v>
-      </c>
-      <c r="J16">
-        <v>20</v>
-      </c>
-      <c r="K16">
-        <v>20</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>20</v>
-      </c>
-      <c r="H17">
-        <v>30</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>20</v>
-      </c>
-      <c r="K17">
-        <v>20</v>
-      </c>
-      <c r="L17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>20</v>
-      </c>
-      <c r="H18">
-        <v>30</v>
-      </c>
-      <c r="I18">
-        <v>20</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
-      <c r="I19">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>20</v>
-      </c>
-      <c r="K19">
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="G20">
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>30</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
-      </c>
-      <c r="J20">
-        <v>20</v>
-      </c>
-      <c r="K20">
-        <v>20</v>
-      </c>
-      <c r="L20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>20</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16">
-      <c r="A22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-      <c r="J22">
-        <v>20</v>
-      </c>
-      <c r="K22">
-        <v>20</v>
-      </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16">
-      <c r="A23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>20</v>
-      </c>
-      <c r="H23">
-        <v>30</v>
-      </c>
-      <c r="I23">
-        <v>20</v>
-      </c>
-      <c r="J23">
-        <v>20</v>
-      </c>
-      <c r="K23">
-        <v>20</v>
-      </c>
-      <c r="L23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16">
-      <c r="A24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24">
-        <v>20</v>
-      </c>
-      <c r="J24">
-        <v>20</v>
-      </c>
-      <c r="K24">
-        <v>20</v>
-      </c>
-      <c r="L24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16">
-      <c r="A25" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25">
-        <v>40</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="G25">
-        <v>20</v>
-      </c>
-      <c r="H25">
-        <v>30</v>
-      </c>
-      <c r="I25">
-        <v>20</v>
-      </c>
-      <c r="J25">
-        <v>20</v>
-      </c>
-      <c r="K25">
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16">
-      <c r="A26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26">
-        <v>40</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>30</v>
-      </c>
-      <c r="I26">
-        <v>20</v>
-      </c>
-      <c r="J26">
-        <v>20</v>
-      </c>
-      <c r="K26">
-        <v>20</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16">
-      <c r="A27" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27">
-        <v>40</v>
-      </c>
-      <c r="E27">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="H27">
-        <v>30</v>
-      </c>
-      <c r="I27">
-        <v>20</v>
-      </c>
-      <c r="J27">
-        <v>20</v>
-      </c>
-      <c r="K27">
-        <v>20</v>
-      </c>
-      <c r="L27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="H28">
-        <v>30</v>
-      </c>
-      <c r="I28">
-        <v>20</v>
-      </c>
-      <c r="J28">
-        <v>20</v>
-      </c>
-      <c r="K28">
-        <v>20</v>
-      </c>
-      <c r="L28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16">
+      <c r="H28" s="2">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2">
+        <v>6</v>
+      </c>
+      <c r="L28" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15">
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="16">
+    <row r="30" spans="1:12" ht="15">
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="16">
+    <row r="31" spans="1:12" ht="15">
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="16">
+    <row r="32" spans="1:12" ht="15">
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="11:11" ht="16">
+    <row r="33" spans="11:11" ht="15">
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="11:11" ht="16">
+    <row r="34" spans="11:11" ht="15">
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="11:11" ht="16">
+    <row r="35" spans="11:11" ht="15">
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="11:11" ht="16">
+    <row r="36" spans="11:11" ht="15">
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="11:11" ht="16">
+    <row r="37" spans="11:11" ht="15">
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="11:11" ht="16">
+    <row r="38" spans="11:11" ht="15">
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="11:11" ht="16">
+    <row r="39" spans="11:11" ht="15">
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="11:11" ht="16">
+    <row r="40" spans="11:11" ht="15">
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="11:11" ht="16">
+    <row r="41" spans="11:11" ht="15">
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="11:11" ht="16">
+    <row r="42" spans="11:11" ht="15">
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="11:11" ht="16">
+    <row r="43" spans="11:11" ht="15">
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="11:11" ht="16">
+    <row r="44" spans="11:11" ht="15">
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="11:11" ht="16">
+    <row r="45" spans="11:11" ht="15">
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="11:11" ht="16">
+    <row r="46" spans="11:11" ht="15">
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="11:11" ht="16">
+    <row r="47" spans="11:11" ht="15">
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="11:11" ht="16">
+    <row r="48" spans="11:11" ht="15">
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="11:11" ht="16">
+    <row r="49" spans="11:11" ht="15">
       <c r="K49" s="1"/>
     </row>
   </sheetData>
@@ -2432,7 +2483,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -2461,5 +2512,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Doc/仕様.xlsx
+++ b/Assets/Doc/仕様.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walki\Documents\Unity\LastRecord\Assets\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.takahashi/Documents/Develop/Unity/LastRecord/Assets/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02967694-4BE1-4E97-97A5-AB457CA47657}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63134D23-9B74-9C44-A5F6-8BAC13D39016}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="780" windowWidth="19005" windowHeight="16200" activeTab="2" xr2:uid="{E13B2868-3469-294C-8736-18F1DAAB0BEA}"/>
+    <workbookView xWindow="9800" yWindow="780" windowWidth="19000" windowHeight="16200" activeTab="2" xr2:uid="{E13B2868-3469-294C-8736-18F1DAAB0BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="スキル" sheetId="1" r:id="rId1"/>
@@ -799,15 +799,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DMG</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>HIT</t>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1254,7 +1254,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,13 +1269,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="1:5">
@@ -1412,16 +1412,16 @@
   <dimension ref="A3:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18">
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>99</v>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75">
+    <row r="5" spans="1:18" ht="16">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18">
+    <row r="6" spans="1:18" ht="19">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s">
         <v>104</v>
@@ -1576,7 +1576,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18">
+    <row r="7" spans="1:18" ht="19">
       <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P7" t="s">
         <v>105</v>
@@ -1626,7 +1626,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18">
+    <row r="8" spans="1:18" ht="19">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75">
+    <row r="9" spans="1:18" ht="16">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75">
+    <row r="10" spans="1:18" ht="16">
       <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75">
+    <row r="11" spans="1:18" ht="16">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75">
+    <row r="12" spans="1:18" ht="16">
       <c r="A12" s="6" t="s">
         <v>71</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75">
+    <row r="13" spans="1:18" ht="16">
       <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75">
+    <row r="14" spans="1:18" ht="16">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75">
+    <row r="15" spans="1:18" ht="16">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75">
+    <row r="16" spans="1:18" ht="16">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="6" t="s">
         <v>74</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="16">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="16">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" ht="16">
       <c r="A22" s="6" t="s">
         <v>94</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" ht="16">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12" ht="16">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
+    <row r="25" spans="1:12" ht="16">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75">
+    <row r="26" spans="1:12" ht="16">
       <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75">
+    <row r="27" spans="1:12" ht="16">
       <c r="A27" s="6" t="s">
         <v>92</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75">
+    <row r="28" spans="1:12" ht="16">
       <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
@@ -2406,67 +2406,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15">
+    <row r="29" spans="1:12" ht="16">
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15">
+    <row r="30" spans="1:12" ht="16">
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15">
+    <row r="31" spans="1:12" ht="16">
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15">
+    <row r="32" spans="1:12" ht="16">
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="11:11" ht="15">
+    <row r="33" spans="11:11" ht="16">
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="11:11" ht="15">
+    <row r="34" spans="11:11" ht="16">
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="11:11" ht="15">
+    <row r="35" spans="11:11" ht="16">
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="11:11" ht="15">
+    <row r="36" spans="11:11" ht="16">
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="11:11" ht="15">
+    <row r="37" spans="11:11" ht="16">
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="11:11" ht="15">
+    <row r="38" spans="11:11" ht="16">
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="11:11" ht="15">
+    <row r="39" spans="11:11" ht="16">
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="11:11" ht="15">
+    <row r="40" spans="11:11" ht="16">
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="11:11" ht="15">
+    <row r="41" spans="11:11" ht="16">
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="11:11" ht="15">
+    <row r="42" spans="11:11" ht="16">
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="11:11" ht="15">
+    <row r="43" spans="11:11" ht="16">
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="11:11" ht="15">
+    <row r="44" spans="11:11" ht="16">
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="11:11" ht="15">
+    <row r="45" spans="11:11" ht="16">
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="11:11" ht="15">
+    <row r="46" spans="11:11" ht="16">
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="11:11" ht="15">
+    <row r="47" spans="11:11" ht="16">
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="11:11" ht="15">
+    <row r="48" spans="11:11" ht="16">
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="11:11" ht="15">
+    <row r="49" spans="11:11" ht="16">
       <c r="K49" s="1"/>
     </row>
   </sheetData>
@@ -2483,7 +2483,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
